--- a/Docs/Features & Components.xlsx
+++ b/Docs/Features & Components.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Projects\DynThings\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DynThings\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,23 +297,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -349,23 +332,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,7 +487,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/Docs/Features & Components.xlsx
+++ b/Docs/Features & Components.xlsx
@@ -487,7 +487,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
